--- a/inst/apps/FLCoral_BCGCalc/external/RMD/files/OutputFileSubtabs.xlsx
+++ b/inst/apps/FLCoral_BCGCalc/external/RMD/files/OutputFileSubtabs.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/NM_BCGCalc/inst/apps/NM_BCGCalc/external/RMD/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/FLCoral_BCGCalc/inst/apps/FLCoral_BCGCalc/external/RMD/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="267" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A386CE70-F65A-41B3-8999-6DEBB9FED8A1}"/>
+  <xr:revisionPtr revIDLastSave="375" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2689F2FF-AF13-465C-B6F1-4BC8AB6515C2}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="8" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="7" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="7" r:id="rId1"/>
     <sheet name="FileBuild_TTAA" sheetId="1" r:id="rId2"/>
-    <sheet name="FileBuild_OutsideBugs" sheetId="13" r:id="rId3"/>
-    <sheet name="FileBuild_OutsideFish" sheetId="14" r:id="rId4"/>
-    <sheet name="FileBuild_IndexClassParam" sheetId="9" r:id="rId5"/>
-    <sheet name="FB_IndexClassParam_Cols" sheetId="10" r:id="rId6"/>
-    <sheet name="FileBuild_IndexNameClass" sheetId="4" r:id="rId7"/>
-    <sheet name="FileBuild_Merge" sheetId="3" r:id="rId8"/>
-    <sheet name="Calc_BCG" sheetId="5" r:id="rId9"/>
-    <sheet name="Calc_ThermPref" sheetId="6" r:id="rId10"/>
-    <sheet name="Calc_ModTherm" sheetId="8" r:id="rId11"/>
-    <sheet name="Calc_MTTI" sheetId="11" r:id="rId12"/>
-    <sheet name="Calc_BDI" sheetId="12" r:id="rId13"/>
+    <sheet name="FileBuild_OutsideCoral" sheetId="13" r:id="rId3"/>
+    <sheet name="FileBuild_IndexClassParam" sheetId="9" r:id="rId4"/>
+    <sheet name="FB_IndexClassParam_Cols" sheetId="10" r:id="rId5"/>
+    <sheet name="FileBuild_IndexNameClass" sheetId="4" r:id="rId6"/>
+    <sheet name="FileBuild_Merge" sheetId="3" r:id="rId7"/>
+    <sheet name="Calc_BCG" sheetId="5" r:id="rId8"/>
+    <sheet name="Calc_ThermPref" sheetId="6" r:id="rId9"/>
+    <sheet name="Calc_ModTherm" sheetId="8" r:id="rId10"/>
+    <sheet name="Calc_MTTI" sheetId="11" r:id="rId11"/>
+    <sheet name="Calc_BDI" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="181">
   <si>
     <t>Description</t>
   </si>
@@ -359,96 +358,33 @@
     <t>Unique sample identifier (typically comprised of the site name, sample date, and replicate number).</t>
   </si>
   <si>
-    <t>FFG</t>
-  </si>
-  <si>
     <t>BCG_ATTR</t>
   </si>
   <si>
-    <t>Taxonomic identification of organisms in each sample.</t>
-  </si>
-  <si>
     <t>numeric</t>
   </si>
   <si>
     <t>non-negative real number</t>
   </si>
   <si>
-    <t>Number of individuals (not number of taxa).</t>
-  </si>
-  <si>
-    <t>NONTARGET</t>
-  </si>
-  <si>
     <t>TRUE, FALSE</t>
   </si>
   <si>
-    <t>Non-target taxa should be marked “TRUE”.</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>number ranging from 0-10</t>
-  </si>
-  <si>
-    <t>Taxa with tolerance values ranging from 0 to 3 are considered ‘intolerant’ to anthropogenic disturbance and are included in the ‘intolerant’ metric calculations. Those with values ranging from 7 to 10 are included in the ‘tolerant’ metrics.</t>
-  </si>
-  <si>
     <t>Entries should be consistent with the phylogeny.</t>
   </si>
   <si>
-    <t>CG, CF, PR, SC, SH, PH;PR</t>
-  </si>
-  <si>
-    <t>Habit types: Burrowers (BU), Climbers (CB), Clingers (CN), Skaters (SK), Sprawlers (SP), and Swimmers (SW). Multiple entries are allowed and should be separated with a SEMICOLON rather than a comma or space.</t>
-  </si>
-  <si>
-    <t>BU, CB, CN, SK, SP, SW</t>
-  </si>
-  <si>
-    <t>Primary Functional Feeding Group: Collector-Gatherer (CG), Collector-Filterer (CF), Piercer-Predator (PH;PR), Predator (PR), Scraper (SC), or Shredder (SH). Multiple entries are allowed and should be separated with a SEMICOLON rather than a comma or space.</t>
-  </si>
-  <si>
     <t>1, 2, 3, 4, 5, 6</t>
   </si>
   <si>
     <t>BCG Attribute assigned to each taxon. A single taxon can only have one entry.</t>
   </si>
   <si>
-    <t>Broadcaster</t>
-  </si>
-  <si>
-    <t>1, 2, 3, 4, 5, 6, 6s, 6t, 10</t>
-  </si>
-  <si>
-    <t>HB, IV, OM, PI, PL</t>
-  </si>
-  <si>
-    <t>Label all pelagic broadcast spawning fish as "Broadcaster" in this field. No other reproduction type is used in this BCG.</t>
-  </si>
-  <si>
-    <t>Trophic type: Herbivore (HB), Insectivore (IV), Omnivore (OM), piscivore (PI), planktivore (PL). A single taxon can only have one entry.</t>
-  </si>
-  <si>
-    <t>LLNLB</t>
-  </si>
-  <si>
-    <t>Label all Long Lived, Native Large Bodied fish as "LLNLB" in this field.</t>
-  </si>
-  <si>
     <t>TAXAID</t>
   </si>
   <si>
-    <t>N_TAXA</t>
-  </si>
-  <si>
-    <t>HABIT</t>
-  </si>
-  <si>
-    <t>TOLVAL</t>
-  </si>
-  <si>
     <t>PHYLUM</t>
   </si>
   <si>
@@ -458,18 +394,6 @@
     <t>FAMILY</t>
   </si>
   <si>
-    <t>REPRODUCTION</t>
-  </si>
-  <si>
-    <t>TROPHIC</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>Taxonomic identification of organisms in each sample. Note, use scientific name here (e.g., Lepomis macrochirus) rather than common name.</t>
-  </si>
-  <si>
     <t>Subfolder</t>
   </si>
   <si>
@@ -494,21 +418,6 @@
     <t>BCG_TaxaTranslator_nonmatch</t>
   </si>
   <si>
-    <t>NM_BCG_xxxx_Attributes_yyyymmdd</t>
-  </si>
-  <si>
-    <t>NM_BCG_xxxx_Attributes_Metadata_yyyymmdd</t>
-  </si>
-  <si>
-    <t>NM_BCG_xxxx_Taxa_Translator_yyyymmdd</t>
-  </si>
-  <si>
-    <t>NM_BCG_xxxx_Taxa_Translator_Metadata_yyyymmdd</t>
-  </si>
-  <si>
-    <t>results_xxxx_BCG</t>
-  </si>
-  <si>
     <t>Original file name</t>
   </si>
   <si>
@@ -533,18 +442,6 @@
     <t>Histogram showing distribution of samples across BCG levels.</t>
   </si>
   <si>
-    <t>Original input file with an 'EXCLUDE' taxa column added in. It is a TRUE/FALSE field in which R marks redundant taxa as ‘TRUE’ based on the phylogeny fields in the input file. All 'Exclude’ decisions are sample-specific. A detailed description of the process that the R tool uses for marking redundant taxa is available upon request (Jen.Stamp@tetratech.com)</t>
-  </si>
-  <si>
-    <t>Values for all bug/fish metrics in the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
-  </si>
-  <si>
-    <t>Values for bug/fish metrics used in the NM BCG models; the calculations are done with the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
-  </si>
-  <si>
-    <t>Values for bug/fish metrics used in the NM BCG models; each metric is assigned to  assigned metric membership values (0-1)</t>
-  </si>
-  <si>
     <t>Rules for each BCG level (metrics, thresholds, symbols).</t>
   </si>
   <si>
@@ -578,9 +475,6 @@
     <t>Rules.xlsx</t>
   </si>
   <si>
-    <t>BCG_1markexcl</t>
-  </si>
-  <si>
     <t>BCG_2metval_all</t>
   </si>
   <si>
@@ -603,6 +497,111 @@
   </si>
   <si>
     <t>BCG_6metflags</t>
+  </si>
+  <si>
+    <t>LRBC</t>
+  </si>
+  <si>
+    <t>JUVENILE</t>
+  </si>
+  <si>
+    <t>DIAMMAX_CM</t>
+  </si>
+  <si>
+    <t>DIAMPERP_CM</t>
+  </si>
+  <si>
+    <t>WEEDY</t>
+  </si>
+  <si>
+    <t>MORPHCONVFACT</t>
+  </si>
+  <si>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>SUBCLASS</t>
+  </si>
+  <si>
+    <t>GENUS</t>
+  </si>
+  <si>
+    <t>SUBGENUS</t>
+  </si>
+  <si>
+    <t>SPECIES</t>
+  </si>
+  <si>
+    <t>TOTTRANLNGTH_M</t>
+  </si>
+  <si>
+    <t>HEIGHT_CM</t>
+  </si>
+  <si>
+    <t>TOTMORT_PCT</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morphological Conversion Factor. In general, morphological types and relative values included flat (M=1), hemisphere (M=2), overlapping plates and lobes (M=3), and branched (M=4) colonies. </t>
+  </si>
+  <si>
+    <t>% total mortality of the colony (e.g., 58%). Used to calculate % Living Tissue = 100 - TOTMORT_PCT.</t>
+  </si>
+  <si>
+    <t>"Sometimes" or "Never"</t>
+  </si>
+  <si>
+    <t>Specifies whether a colony is 'Weedy' as either "Sometimes" or "Never". Converted to binary TRUE/FALSE WEEDY_CONFIRMED field. Any colony listed as "Never" will equal FALSE. Any colony listed as "Sometimes" and under 75cm maximum diameter will equal TRUE unless they are Siderastrea siderea or Stepahnocoenia intersepta. Colonies of those two species are considered 'Weedy' if the maximum diameter is less than or equal to 30cm and the height is less than or equal to 10cm.</t>
+  </si>
+  <si>
+    <t>Large reef-building coral colonies should be marked as 'TRUE'.</t>
+  </si>
+  <si>
+    <t>Maximum diameter of the colony (cm)</t>
+  </si>
+  <si>
+    <t>Perpendicular diameter of the colony (cm).</t>
+  </si>
+  <si>
+    <t>Height of the colony (cm).</t>
+  </si>
+  <si>
+    <t>Juvenile colonies should be marked as 'TRUE'.</t>
+  </si>
+  <si>
+    <t>Taxonomic identification of colonies in each sample.</t>
+  </si>
+  <si>
+    <t>Total transect length of the sample (m). Should be repeated for each row.</t>
+  </si>
+  <si>
+    <t>FLCoral_BCG_Attributes_yyyymmdd</t>
+  </si>
+  <si>
+    <t>FLCoral_BCG_Attributes_Metadata_yyyymmdd</t>
+  </si>
+  <si>
+    <t>FLCoral_BCG_Taxa_Translator_yyyymmdd</t>
+  </si>
+  <si>
+    <t>FLCoral_BCG_Taxa_Translator_Metadata_yyyymmdd</t>
+  </si>
+  <si>
+    <t>results_FLCoral_BCG</t>
+  </si>
+  <si>
+    <t>results_Coral_BCG</t>
+  </si>
+  <si>
+    <t>Values for all coral metrics in the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
+  </si>
+  <si>
+    <t>Values for coral metrics used in the FL BCG models; the calculations are done with the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
+  </si>
+  <si>
+    <t>Values for coral metrics used in the FL BCG models; each metric is assigned to  assigned metric membership values (0-1)</t>
   </si>
 </sst>
 </file>
@@ -668,7 +667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -690,9 +689,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1084,65 +1080,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC02891-55F0-4D4F-8AD2-82CDF128973D}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8226433C-489A-4F3D-AEB5-F41FA1B97ACA}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -1269,7 +1206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCBBF59-2913-4C4D-BF48-C5D0EB7A6892}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1344,7 +1281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90638112-B066-41D7-9E92-7D5E21BB891E}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1400,13 +1337,13 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1416,7 +1353,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1424,10 +1361,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -1435,21 +1372,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>86</v>
@@ -1457,10 +1394,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>87</v>
@@ -1468,21 +1405,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1490,10 +1427,10 @@
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -1501,10 +1438,10 @@
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -1512,10 +1449,10 @@
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>88</v>
@@ -1528,19 +1465,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A23830-B5FB-49D3-AF84-8DE9239FC2FB}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="56" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1560,7 +1498,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -1577,357 +1515,336 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
         <v>97</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
         <v>97</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
         <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" t="s">
         <v>100</v>
       </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
         <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
         <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
         <v>95</v>
       </c>
       <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
         <v>96</v>
       </c>
-      <c r="D12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>111</v>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5AE3AB-44D5-4B65-90D2-0BC6561C5612}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.28515625" style="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9087282C-EEAC-47C0-A95E-57ECCF66652A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1971,7 +1888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCDC5CA-D016-4BEF-A738-D76EAE004D04}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -2086,7 +2003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79F2490-5015-4870-822C-849AAF4ACE02}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -2138,7 +2055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283C6984-BF98-4F5A-9A86-F6DED122E046}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -2190,18 +2107,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E560A9A-B97C-4C71-B80B-6BD79D2219D9}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
     <col min="3" max="3" width="136.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2210,192 +2127,240 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>149</v>
+      <c r="A2" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>168</v>
+      <c r="A3" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>172</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC02891-55F0-4D4F-8AD2-82CDF128973D}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/apps/FLCoral_BCGCalc/external/RMD/files/OutputFileSubtabs.xlsx
+++ b/inst/apps/FLCoral_BCGCalc/external/RMD/files/OutputFileSubtabs.xlsx
@@ -1,30 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/FLCoral_BCGCalc/inst/apps/FLCoral_BCGCalc/external/RMD/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="375" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2689F2FF-AF13-465C-B6F1-4BC8AB6515C2}"/>
+  <xr:revisionPtr revIDLastSave="384" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{561D7837-FBF0-413F-BBA1-13C899878D7A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="7" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="2" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
   </bookViews>
   <sheets>
-    <sheet name="notes" sheetId="7" r:id="rId1"/>
-    <sheet name="FileBuild_TTAA" sheetId="1" r:id="rId2"/>
-    <sheet name="FileBuild_OutsideCoral" sheetId="13" r:id="rId3"/>
-    <sheet name="FileBuild_IndexClassParam" sheetId="9" r:id="rId4"/>
-    <sheet name="FB_IndexClassParam_Cols" sheetId="10" r:id="rId5"/>
-    <sheet name="FileBuild_IndexNameClass" sheetId="4" r:id="rId6"/>
-    <sheet name="FileBuild_Merge" sheetId="3" r:id="rId7"/>
-    <sheet name="Calc_BCG" sheetId="5" r:id="rId8"/>
-    <sheet name="Calc_ThermPref" sheetId="6" r:id="rId9"/>
-    <sheet name="Calc_ModTherm" sheetId="8" r:id="rId10"/>
-    <sheet name="Calc_MTTI" sheetId="11" r:id="rId11"/>
-    <sheet name="Calc_BDI" sheetId="12" r:id="rId12"/>
+    <sheet name="FileBuild_TTAA" sheetId="1" r:id="rId1"/>
+    <sheet name="FileBuild_OutsideCoral" sheetId="13" r:id="rId2"/>
+    <sheet name="Calc_BCG" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,41 +38,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="102">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>xxx</t>
-  </si>
-  <si>
     <t>Output file</t>
   </si>
   <si>
     <t>original input file</t>
   </si>
   <si>
-    <t>xxx_indexclass_0criteria</t>
-  </si>
-  <si>
-    <t>Original input file with Index_Name and Index_Class fields added in; this file can be merged with the final output file from the 'Taxa Translator and Add Attribute' function via the 'Merge Files' function. The file will then be ready to run through the BCG calculator</t>
-  </si>
-  <si>
-    <t>Combined file. All rows and columns in File 1 (Primary) are carried through into the output file. For File 2, only data for rows that match with File 1 via the common identifier are carried through.</t>
-  </si>
-  <si>
-    <t>xxx_MergeFiles_RESULTS</t>
-  </si>
-  <si>
-    <t>ThermPrefMetrics_metadata</t>
-  </si>
-  <si>
-    <t>xxx_met_therm_1markexcl</t>
-  </si>
-  <si>
-    <t>xxx_met_therm_RESULTS</t>
-  </si>
-  <si>
     <t>Original input file</t>
   </si>
   <si>
@@ -92,219 +59,6 @@
   </si>
   <si>
     <t>Lists taxa in the input file that don't occur in the regional taxa translator table (if the file is blank, all are 'matches')</t>
-  </si>
-  <si>
-    <t>Criteria that were used for the Index Class assignment</t>
-  </si>
-  <si>
-    <t>Input file 1</t>
-  </si>
-  <si>
-    <t>Input file 2</t>
-  </si>
-  <si>
-    <t>original input file with an 'EXCLUDE' taxa column added in. It is a TRUE/FALSE field in which R marks redundant taxa as ‘TRUE’ based on the phylogeny fields in the input file. All 'Exclude’ decisions are sample-specific. A detailed description of the process that the R tool uses for marking redundant taxa is available upon request (Jen.Stamp@tetratech.com)</t>
-  </si>
-  <si>
-    <t>values for all bug metrics in the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
-  </si>
-  <si>
-    <t>values for bug metrics used in the MaritimeNW BCG model; each metric is assigned to  assigned metric membership values (0-1)</t>
-  </si>
-  <si>
-    <t>for each sample, membership in each BCG level (0-1). Includes Index_Name and Index_Class</t>
-  </si>
-  <si>
-    <t>summary of how many samples had flagged metrics (and not flagged) based on the input file; count of # flagged (flag) and not flagged (NA)</t>
-  </si>
-  <si>
-    <t>results of flag calculations for all metrics and samples</t>
-  </si>
-  <si>
-    <t>values for all thermal and hydrologic indicator metrics; calculated with the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
-  </si>
-  <si>
-    <t>metadata for the the '_met_therm_RESULTS' file</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Used by RMD to build tables for "output" tabs in Shiny.</t>
-  </si>
-  <si>
-    <t>Jen.Stamp@tetratech.com</t>
-  </si>
-  <si>
-    <t>xxx_modtherm_1markexcl</t>
-  </si>
-  <si>
-    <t>xxx_modtherm_2metval_all</t>
-  </si>
-  <si>
-    <t>xxx_modtherm_2metval_BCG</t>
-  </si>
-  <si>
-    <t>xxx_modtherm_3metmemb</t>
-  </si>
-  <si>
-    <t>xxx_modtherm_3metrules</t>
-  </si>
-  <si>
-    <t>xxx_modtherm_4levmemb</t>
-  </si>
-  <si>
-    <t>xxx_modtherm_5levassign</t>
-  </si>
-  <si>
-    <t>xxx_modtherm_6levflags</t>
-  </si>
-  <si>
-    <t>xxx_modtherm_6metflags</t>
-  </si>
-  <si>
-    <t>values for bug metrics used in the Thermal Model (model + flags); the calculations are done with the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
-  </si>
-  <si>
-    <t>histogram showing distribution of samples across Thermal Model levels.</t>
-  </si>
-  <si>
-    <t>for each sample, thermal model output (primary, secondary levels and membership, continuous model score, narrative with and without pluses and minuses) plus flags (flag or NA)</t>
-  </si>
-  <si>
-    <t>results without the flags (primary, secondary levels and membership, continuous score, narrative with and without pluses and minuses)</t>
-  </si>
-  <si>
-    <t>Rules for each class x BCG level (metrics, thresholds, symbols). Rules are similar but not exactly the same. long data format</t>
-  </si>
-  <si>
-    <t>Original version</t>
-  </si>
-  <si>
-    <t>Added IndexClassParam</t>
-  </si>
-  <si>
-    <t>Original input file with additional fields appended.  This file will be ready to run the Assign Index Class function in the File Builder section of the BCGcalc Shiny app.</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>EPSG_CALC</t>
-  </si>
-  <si>
-    <t>WSAREASQKM</t>
-  </si>
-  <si>
-    <t>elev_m</t>
-  </si>
-  <si>
-    <t>pslope_nhd</t>
-  </si>
-  <si>
-    <t>slopelenkm</t>
-  </si>
-  <si>
-    <t>gnis_name</t>
-  </si>
-  <si>
-    <t>streamorde</t>
-  </si>
-  <si>
-    <t>ftype</t>
-  </si>
-  <si>
-    <t>fcode</t>
-  </si>
-  <si>
-    <t>&lt;existing columns&gt;</t>
-  </si>
-  <si>
-    <t>EPSG value used to generate COMID</t>
-  </si>
-  <si>
-    <t>COMID</t>
-  </si>
-  <si>
-    <t>% NHDPlusV2 flowline slope (slope*100)</t>
-  </si>
-  <si>
-    <t>length of NHDPlusV2 flowline (which the slope is based on)</t>
-  </si>
-  <si>
-    <t>waterbody name based on NHDPlusV2</t>
-  </si>
-  <si>
-    <t>Strahler stream order. Source: NHD+ VAA file</t>
-  </si>
-  <si>
-    <t>Flowline type based on NHDPlusV2 (e.g., stream/river, artificial path, connector/ditch)</t>
-  </si>
-  <si>
-    <t>Flowline code based on NHDPlusV2</t>
-  </si>
-  <si>
-    <t>Mean elevation (meters) of local catchment area (km2) based on EPA StreamCat dataset (Hill et al. 2016) (not exact watershed delineation)</t>
-  </si>
-  <si>
-    <t>Total watershed area (km2) based on EPA StreamCat dataset (Hill et al. 2016) (not exact watershed delineation)</t>
-  </si>
-  <si>
-    <t>NHDplus COMID derived from StreamCat using latitude, longitude, and EPSG values provided by the user.</t>
-  </si>
-  <si>
-    <t>Columns from input data.  Latitude and Longitude fields will be moved to after COMID.</t>
-  </si>
-  <si>
-    <t>xxx_indexclassparam_RESULTS</t>
-  </si>
-  <si>
-    <t>xxx_indexclass_1results</t>
-  </si>
-  <si>
-    <t>Add Calc_MTTI</t>
-  </si>
-  <si>
-    <t>for each sample, MTTI model output plus flags (flag or NA)</t>
-  </si>
-  <si>
-    <t>xxx_MTTI_flags_1_metrics.csv</t>
-  </si>
-  <si>
-    <t>xxx_MTTI_flags_2_eval_long.csv</t>
-  </si>
-  <si>
-    <t>xxx_MTT_flags_3_eval_summary.csv</t>
-  </si>
-  <si>
-    <t>for each sample, BDI model output plus flags (flag or NA)</t>
-  </si>
-  <si>
-    <t>Metrics needed for flags.  Including min and max MTTI values per sample taxa.</t>
-  </si>
-  <si>
-    <t>boxplot showing distribution of samples across MTTI values.</t>
-  </si>
-  <si>
-    <t>xxx_MTTI_RESULTS.html</t>
-  </si>
-  <si>
-    <t>xxx_MTTI_RESULTS.csv</t>
-  </si>
-  <si>
-    <t>xxx_BDI_RESULTS.csv</t>
-  </si>
-  <si>
-    <t>xxx_modtherm_RESULTS.csv</t>
-  </si>
-  <si>
-    <t>xxx_modtherm_RESULTS.html</t>
-  </si>
-  <si>
-    <t>xxx_BDI_1markexcl</t>
-  </si>
-  <si>
-    <t>Update BDI</t>
   </si>
   <si>
     <t>Metadata for the regional attribute table</t>
@@ -608,7 +362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,14 +374,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -663,11 +409,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -684,15 +429,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1004,335 +745,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7863C4F-396E-40BF-96A9-69B357BBF05F}">
-  <sheetPr>
-    <tabColor theme="0" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>44963</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>44963</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>45078</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>45083</v>
-      </c>
-      <c r="B12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{E37608BC-A119-4E3E-837F-24B39B5656AA}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8226433C-489A-4F3D-AEB5-F41FA1B97ACA}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="136.5703125" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCBBF59-2913-4C4D-BF48-C5D0EB7A6892}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90638112-B066-41D7-9E92-7D5E21BB891E}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5008E5B7-331F-433A-9A7C-4AD246BB0834}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -1350,10 +762,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1361,101 +773,101 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>88</v>
+        <v>97</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1463,11 +875,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A23830-B5FB-49D3-AF84-8DE9239FC2FB}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1483,359 +895,359 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>171</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>170</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>169</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>167</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>168</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>164</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>165</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>161</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1844,275 +1256,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9087282C-EEAC-47C0-A95E-57ECCF66652A}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="88.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCDC5CA-D016-4BEF-A738-D76EAE004D04}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="127" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79F2490-5015-4870-822C-849AAF4ACE02}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="88.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283C6984-BF98-4F5A-9A86-F6DED122E046}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="67.85546875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E560A9A-B97C-4C71-B80B-6BD79D2219D9}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2124,10 +1273,10 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -2135,167 +1284,167 @@
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>180</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2306,63 +1455,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC02891-55F0-4D4F-8AD2-82CDF128973D}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>